--- a/CSE250B/HW/HW2/Book1.xlsx
+++ b/CSE250B/HW/HW2/Book1.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Errors" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Random" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>reject top 2000</t>
   </si>
@@ -51,6 +55,60 @@
   </si>
   <si>
     <t>take top 5000</t>
+  </si>
+  <si>
+    <t>Removing Stop Words</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Total Bayes Classifier</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Total Test Docs</t>
+  </si>
+  <si>
+    <t>M =5000</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Modified Selection</t>
+  </si>
+  <si>
+    <t>Random Selection</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Class Id</t>
+  </si>
+  <si>
+    <t>M= 61066</t>
+  </si>
+  <si>
+    <t>M = 20,000</t>
   </si>
 </sst>
 </file>
@@ -86,8 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +165,2915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> with Random Vocabulary Selection Classifier</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Errors!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modified Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Errors!$A$5:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Errors!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22.73151232511659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.118587608261159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.092604930046637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.426382411725516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.880079946702196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.653564290473017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.333777481678883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.107261825449701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.240506329113924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.173884077281812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.120586275816123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.080612924716856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.267155229846768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7623-453B-BEFC-B44D4CD382A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Errors!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Errors!$A$5:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Errors!$E$5:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>54.883411059293806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.275149900066623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.451698867421719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.028647568287809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.618920719520322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.446369087275148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.781479013990673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.903397734843438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.850766155896068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.785476349100598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.71885409726849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.799467021985343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.267155229846768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7623-453B-BEFC-B44D4CD382A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="315778696"/>
+        <c:axId val="315781648"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Errors!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Modified</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Errors!$A$5:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>All</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Errors!$B$5:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>1706</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1660</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1583</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1533</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1492</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1475</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1451</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1434</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1444</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1439</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1435</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1432</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1446</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7623-453B-BEFC-B44D4CD382A9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Errors!$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Random</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Errors!$A$5:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>35000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>All</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Errors!$D$5:$D$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>4119</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3548</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3186</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2779</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2373</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2285</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2085</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1869</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1790</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1635</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1630</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1561</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1446</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7623-453B-BEFC-B44D4CD382A9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="315778696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> (Vocabulary Size)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315781648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315781648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Misclassification (Error rate)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315778696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Classwise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Classification Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 20,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96E7-48C6-B5E2-0C5846D30910}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M= 61066</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96E7-48C6-B5E2-0C5846D30910}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747171072"/>
+        <c:axId val="747167792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747171072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747167792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="747167792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of documents classified correctly</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747171072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EBE935-29E1-4360-B3BF-652115905529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E727475D-B76D-460F-A533-BD3193900873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,4 +3508,1228 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5000</v>
+      </c>
+      <c r="B5">
+        <v>1706</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B1)*100</f>
+        <v>22.73151232511659</v>
+      </c>
+      <c r="D5">
+        <v>4119</v>
+      </c>
+      <c r="E5">
+        <f>(D5/7505)*100</f>
+        <v>54.883411059293806</v>
+      </c>
+      <c r="G5">
+        <f>(100-C5)</f>
+        <v>77.268487674883403</v>
+      </c>
+      <c r="H5">
+        <f>(A5/G5)</f>
+        <v>64.7094326608036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7000</v>
+      </c>
+      <c r="B6">
+        <v>1660</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B1)*100</f>
+        <v>22.118587608261159</v>
+      </c>
+      <c r="D6">
+        <v>3548</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E17" si="0">(D6/7505)*100</f>
+        <v>47.275149900066623</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G17" si="1">(100-C6)</f>
+        <v>77.881412391738849</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H17" si="2">(A6/G6)</f>
+        <v>89.880239520958071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>1583</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B1)*100</f>
+        <v>21.092604930046637</v>
+      </c>
+      <c r="D7">
+        <v>3186</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42.451698867421719</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>78.907395069953367</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>126.73083417764269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13000</v>
+      </c>
+      <c r="B8">
+        <v>1533</v>
+      </c>
+      <c r="C8">
+        <f>(B8/B1)*100</f>
+        <v>20.426382411725516</v>
+      </c>
+      <c r="D8">
+        <v>2779</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>37.028647568287809</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>79.573617588274487</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>163.37073007367715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>17000</v>
+      </c>
+      <c r="B9">
+        <v>1492</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B1)*100</f>
+        <v>19.880079946702196</v>
+      </c>
+      <c r="D9">
+        <v>2373</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>31.618920719520322</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>80.119920053297804</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>212.18193913188091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20000</v>
+      </c>
+      <c r="B10">
+        <v>1475</v>
+      </c>
+      <c r="C10">
+        <f>(B10/B1)*100</f>
+        <v>19.653564290473017</v>
+      </c>
+      <c r="D10">
+        <v>2285</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>30.446369087275148</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>80.346435709526986</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>248.92205638474294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>25000</v>
+      </c>
+      <c r="B11">
+        <v>1451</v>
+      </c>
+      <c r="C11">
+        <f>(B11/B1)*100</f>
+        <v>19.333777481678883</v>
+      </c>
+      <c r="D11">
+        <v>2085</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>27.781479013990673</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>80.666222518321121</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>309.91906177733728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30000</v>
+      </c>
+      <c r="B12">
+        <v>1434</v>
+      </c>
+      <c r="C12">
+        <f>(B12/B1)*100</f>
+        <v>19.107261825449701</v>
+      </c>
+      <c r="D12">
+        <v>1869</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>24.903397734843438</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>80.892738174550303</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>370.86147257453467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>35000</v>
+      </c>
+      <c r="B13">
+        <v>1444</v>
+      </c>
+      <c r="C13">
+        <f>(B13/B1)*100</f>
+        <v>19.240506329113924</v>
+      </c>
+      <c r="D13">
+        <v>1790</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>23.850766155896068</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>80.759493670886073</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>433.3855799373041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>40000</v>
+      </c>
+      <c r="B14">
+        <v>1439</v>
+      </c>
+      <c r="C14">
+        <f>(B14/B1)*100</f>
+        <v>19.173884077281812</v>
+      </c>
+      <c r="D14">
+        <v>1635</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>21.785476349100598</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>80.826115922718188</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>494.88954830201124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>45000</v>
+      </c>
+      <c r="B15">
+        <v>1435</v>
+      </c>
+      <c r="C15">
+        <f>(B15/B1)*100</f>
+        <v>19.120586275816123</v>
+      </c>
+      <c r="D15">
+        <v>1630</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>21.71885409726849</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>80.879413724183877</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>556.38385502471169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>50000</v>
+      </c>
+      <c r="B16">
+        <v>1432</v>
+      </c>
+      <c r="C16">
+        <f>(B16/B1)*100</f>
+        <v>19.080612924716856</v>
+      </c>
+      <c r="D16">
+        <v>1561</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>20.799467021985343</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>80.91938707528314</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>617.89889675613369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1446</v>
+      </c>
+      <c r="C17">
+        <f>(B17/B1)*100</f>
+        <v>19.267155229846768</v>
+      </c>
+      <c r="D17">
+        <v>1446</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>19.267155229846768</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>80.732844770153235</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>249</v>
+      </c>
+      <c r="D4" s="1">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1">
+        <v>246</v>
+      </c>
+      <c r="F4" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>306</v>
+      </c>
+      <c r="D5" s="1">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1">
+        <v>310</v>
+      </c>
+      <c r="F5" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>257</v>
+      </c>
+      <c r="D6" s="1">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1">
+        <v>256</v>
+      </c>
+      <c r="F6" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>285</v>
+      </c>
+      <c r="D7" s="1">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1">
+        <v>290</v>
+      </c>
+      <c r="F7" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>296</v>
+      </c>
+      <c r="D8" s="1">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1">
+        <v>290</v>
+      </c>
+      <c r="F8" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>274</v>
+      </c>
+      <c r="D9" s="1">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1">
+        <v>282</v>
+      </c>
+      <c r="F9" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>304</v>
+      </c>
+      <c r="D10" s="1">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1">
+        <v>298</v>
+      </c>
+      <c r="F10" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>347</v>
+      </c>
+      <c r="D11" s="1">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1">
+        <v>353</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>372</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>376</v>
+      </c>
+      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>366</v>
+      </c>
+      <c r="D13" s="1">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>366</v>
+      </c>
+      <c r="F13" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>382</v>
+      </c>
+      <c r="D14" s="1">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>382</v>
+      </c>
+      <c r="F14" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>342</v>
+      </c>
+      <c r="D15" s="1">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1">
+        <v>347</v>
+      </c>
+      <c r="F15" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>273</v>
+      </c>
+      <c r="D16" s="1">
+        <v>120</v>
+      </c>
+      <c r="E16" s="1">
+        <v>280</v>
+      </c>
+      <c r="F16" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>331</v>
+      </c>
+      <c r="D17" s="1">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1">
+        <v>328</v>
+      </c>
+      <c r="F17" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>344</v>
+      </c>
+      <c r="D18" s="1">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1">
+        <v>342</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>345</v>
+      </c>
+      <c r="D19" s="1">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1">
+        <v>359</v>
+      </c>
+      <c r="F19" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>316</v>
+      </c>
+      <c r="D20" s="1">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1">
+        <v>318</v>
+      </c>
+      <c r="F20" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>321</v>
+      </c>
+      <c r="D21" s="1">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1">
+        <v>317</v>
+      </c>
+      <c r="F21" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>183</v>
+      </c>
+      <c r="D22" s="1">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1">
+        <v>181</v>
+      </c>
+      <c r="F22" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1">
+        <v>138</v>
+      </c>
+      <c r="F23" s="1">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Y16"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>7000</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>13000</v>
+      </c>
+      <c r="E3">
+        <v>17000</v>
+      </c>
+      <c r="F3">
+        <v>20000</v>
+      </c>
+      <c r="G3">
+        <v>25000</v>
+      </c>
+      <c r="H3">
+        <v>30000</v>
+      </c>
+      <c r="I3">
+        <v>35000</v>
+      </c>
+      <c r="J3">
+        <v>40000</v>
+      </c>
+      <c r="K3">
+        <v>45000</v>
+      </c>
+      <c r="L3">
+        <v>50000</v>
+      </c>
+      <c r="N3">
+        <v>4118.75</v>
+      </c>
+      <c r="O3">
+        <v>3548.5</v>
+      </c>
+      <c r="P3">
+        <v>3186.25</v>
+      </c>
+      <c r="Q3">
+        <v>2779.5</v>
+      </c>
+      <c r="R3">
+        <v>2373.5</v>
+      </c>
+      <c r="S3">
+        <v>2285.5</v>
+      </c>
+      <c r="T3">
+        <v>2085</v>
+      </c>
+      <c r="U3">
+        <v>1869</v>
+      </c>
+      <c r="V3">
+        <v>1789.75</v>
+      </c>
+      <c r="W3">
+        <v>1632.25</v>
+      </c>
+      <c r="X3">
+        <v>1630</v>
+      </c>
+      <c r="Y3">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4045</v>
+      </c>
+      <c r="B4">
+        <v>3633</v>
+      </c>
+      <c r="C4">
+        <v>3255</v>
+      </c>
+      <c r="D4">
+        <v>2782</v>
+      </c>
+      <c r="E4">
+        <v>2435</v>
+      </c>
+      <c r="F4">
+        <v>2288</v>
+      </c>
+      <c r="G4">
+        <v>1999</v>
+      </c>
+      <c r="H4">
+        <v>1873</v>
+      </c>
+      <c r="I4">
+        <v>1776</v>
+      </c>
+      <c r="J4">
+        <v>1663</v>
+      </c>
+      <c r="K4">
+        <v>1584</v>
+      </c>
+      <c r="L4">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4162</v>
+      </c>
+      <c r="B5">
+        <v>3663</v>
+      </c>
+      <c r="C5">
+        <v>3182</v>
+      </c>
+      <c r="D5">
+        <v>2771</v>
+      </c>
+      <c r="E5">
+        <v>2339</v>
+      </c>
+      <c r="F5">
+        <v>2296</v>
+      </c>
+      <c r="G5">
+        <v>2131</v>
+      </c>
+      <c r="H5">
+        <v>1853</v>
+      </c>
+      <c r="I5">
+        <v>1814</v>
+      </c>
+      <c r="J5">
+        <v>1618</v>
+      </c>
+      <c r="K5">
+        <v>1647</v>
+      </c>
+      <c r="L5">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4039</v>
+      </c>
+      <c r="B6">
+        <v>3521</v>
+      </c>
+      <c r="C6">
+        <v>3206</v>
+      </c>
+      <c r="D6">
+        <v>2803</v>
+      </c>
+      <c r="E6">
+        <v>2310</v>
+      </c>
+      <c r="F6">
+        <v>2267</v>
+      </c>
+      <c r="G6">
+        <v>2099</v>
+      </c>
+      <c r="H6">
+        <v>1925</v>
+      </c>
+      <c r="I6">
+        <v>1809</v>
+      </c>
+      <c r="J6">
+        <v>1640</v>
+      </c>
+      <c r="K6">
+        <v>1646</v>
+      </c>
+      <c r="L6">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4229</v>
+      </c>
+      <c r="B7">
+        <v>3377</v>
+      </c>
+      <c r="C7">
+        <v>3102</v>
+      </c>
+      <c r="D7">
+        <v>2762</v>
+      </c>
+      <c r="E7">
+        <v>2410</v>
+      </c>
+      <c r="F7">
+        <v>2291</v>
+      </c>
+      <c r="G7">
+        <v>2111</v>
+      </c>
+      <c r="H7">
+        <v>1825</v>
+      </c>
+      <c r="I7">
+        <v>1760</v>
+      </c>
+      <c r="J7">
+        <v>1608</v>
+      </c>
+      <c r="K7">
+        <v>1643</v>
+      </c>
+      <c r="L7">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>AVERAGE(A4:A7)</f>
+        <v>4118.75</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:L8" si="0">AVERAGE(B4:B7)</f>
+        <v>3548.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3186.25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2779.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2373.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2285.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1869</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1789.75</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1632.25</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1630</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3816</v>
+      </c>
+      <c r="C13">
+        <v>3121</v>
+      </c>
+      <c r="D13">
+        <v>2997</v>
+      </c>
+      <c r="E13">
+        <v>2738</v>
+      </c>
+      <c r="F13">
+        <v>2490</v>
+      </c>
+      <c r="G13">
+        <v>2241</v>
+      </c>
+      <c r="H13">
+        <v>2073</v>
+      </c>
+      <c r="I13">
+        <v>1950</v>
+      </c>
+      <c r="J13">
+        <v>1948</v>
+      </c>
+      <c r="K13">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3964</v>
+      </c>
+      <c r="C14">
+        <v>3070</v>
+      </c>
+      <c r="D14">
+        <v>2985</v>
+      </c>
+      <c r="E14">
+        <v>2539</v>
+      </c>
+      <c r="F14">
+        <v>2496</v>
+      </c>
+      <c r="G14">
+        <v>2318</v>
+      </c>
+      <c r="H14">
+        <v>2052</v>
+      </c>
+      <c r="I14">
+        <v>2014</v>
+      </c>
+      <c r="J14">
+        <v>1903</v>
+      </c>
+      <c r="K14">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3795</v>
+      </c>
+      <c r="C15">
+        <v>3220</v>
+      </c>
+      <c r="D15">
+        <v>2859</v>
+      </c>
+      <c r="E15">
+        <v>2511</v>
+      </c>
+      <c r="F15">
+        <v>2467</v>
+      </c>
+      <c r="G15">
+        <v>2290</v>
+      </c>
+      <c r="H15">
+        <v>2125</v>
+      </c>
+      <c r="I15">
+        <v>2009</v>
+      </c>
+      <c r="J15">
+        <v>1925</v>
+      </c>
+      <c r="K15">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3678</v>
+      </c>
+      <c r="C16">
+        <v>3298</v>
+      </c>
+      <c r="D16">
+        <v>2959</v>
+      </c>
+      <c r="E16">
+        <v>2615</v>
+      </c>
+      <c r="F16">
+        <v>2491</v>
+      </c>
+      <c r="G16">
+        <v>2311</v>
+      </c>
+      <c r="H16">
+        <v>2025</v>
+      </c>
+      <c r="I16">
+        <v>1902</v>
+      </c>
+      <c r="J16">
+        <v>1893</v>
+      </c>
+      <c r="K16">
+        <v>1897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>